--- a/src/assets/excel/master_mc.xlsx
+++ b/src/assets/excel/master_mc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3lacksmith\Documents\dcs-team\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53095AB-760E-4593-A50B-891B02804F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5FD80-02BC-4D36-876E-A32EE49ED58F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Province</t>
   </si>
@@ -48,6 +48,9 @@
   <si>
     <t>id</t>
   </si>
+  <si>
+    <t>District</t>
+  </si>
 </sst>
 </file>
 
@@ -64,11 +67,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -338,630 +343,745 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="5" customWidth="1"/>
-    <col min="10" max="25" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="5" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="5" customWidth="1"/>
+    <col min="11" max="26" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="2"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="2"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="2"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="2"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="2"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="2"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="2"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="2"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
-      <c r="B100" s="2"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
-      <c r="B102" s="2"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="2"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/assets/excel/master_mc.xlsx
+++ b/src/assets/excel/master_mc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3lacksmith\Documents\dcs-team\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5FD80-02BC-4D36-876E-A32EE49ED58F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9683A07-FB4E-4242-A2D6-99650C8DB2C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Province</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>PIC</t>
-  </si>
-  <si>
-    <t>LAST PM</t>
-  </si>
-  <si>
-    <t>Targets</t>
   </si>
   <si>
     <t>id</t>
@@ -343,10 +337,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -358,17 +352,16 @@
     <col min="5" max="5" width="18.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" style="5" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="5" customWidth="1"/>
-    <col min="11" max="26" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="5" customWidth="1"/>
+    <col min="9" max="24" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -388,100 +381,94 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/src/assets/excel/master_mc.xlsx
+++ b/src/assets/excel/master_mc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3lacksmith\Documents\dcs-team\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3lacksmith\Documents\dcs-teams\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9683A07-FB4E-4242-A2D6-99650C8DB2C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40DCE13-5BE4-4177-80AC-B54401DC550A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Province</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>District</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -337,10 +340,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -348,15 +351,16 @@
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="5" customWidth="1"/>
-    <col min="9" max="24" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="5" customWidth="1"/>
+    <col min="10" max="25" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -369,703 +373,815 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="2"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="2"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E61" s="2"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="2"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="2"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="2"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="2"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="2"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="2"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="2"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E92" s="2"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="6"/>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E106" s="2"/>
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
